--- a/SundayAfterNoonAutomation/TestCases/Login.xlsx
+++ b/SundayAfterNoonAutomation/TestCases/Login.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Test_id</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>browser opened</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>tc_002</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>Column5</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>browser should open</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,19 +496,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -516,120 +516,105 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
